--- a/Expenditures.xlsx
+++ b/Expenditures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,11 +203,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,23 +260,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,51 +287,49 @@
   </sheetPr>
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="8" style="2" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>45389</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>45419</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="4" t="n">
         <v>45450</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>45480</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>45511</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="4" t="n">
         <v>45542</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="4" t="n">
         <v>45572</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="4" t="n">
         <v>45633</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -371,7 +352,7 @@
       <c r="C4" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -380,7 +361,7 @@
       <c r="F4" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H4" s="2" t="n">
@@ -406,7 +387,7 @@
       <c r="C5" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -415,7 +396,7 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="n">
@@ -441,7 +422,7 @@
       <c r="C6" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="E6" s="2" t="n">
@@ -450,7 +431,7 @@
       <c r="F6" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H6" s="2" t="n">
@@ -476,7 +457,7 @@
       <c r="C7" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
@@ -485,7 +466,7 @@
       <c r="F7" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H7" s="2" t="n">
@@ -511,7 +492,7 @@
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="E8" s="2" t="n">
@@ -520,7 +501,7 @@
       <c r="F8" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H8" s="2" t="n">
@@ -546,7 +527,7 @@
       <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="E9" s="2" t="n">
@@ -555,7 +536,7 @@
       <c r="F9" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H9" s="2" t="n">
@@ -581,7 +562,7 @@
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="E10" s="2" t="n">
@@ -590,7 +571,7 @@
       <c r="F10" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H10" s="2" t="n">
@@ -616,7 +597,7 @@
       <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
@@ -625,7 +606,7 @@
       <c r="F11" s="2" t="n">
         <v>2533</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="2" t="n">
         <v>2533</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -651,7 +632,7 @@
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
@@ -660,7 +641,7 @@
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
@@ -685,7 +666,7 @@
         <f aca="false">SUM(C4:C12)</f>
         <v>10132</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="2" t="n">
         <f aca="false">SUM(D4:D12)</f>
         <v>15198</v>
       </c>
@@ -697,7 +678,7 @@
         <f aca="false">SUM(F4:F12)</f>
         <v>17731</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false">SUM(G4:G12)</f>
         <v>17731</v>
       </c>
@@ -755,11 +736,11 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.82"/>
@@ -1051,7 +1032,7 @@
         <f aca="false">SUM(C4:C34)</f>
         <v>151705</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
